--- a/biology/Médecine/1239_en_santé_et_médecine/1239_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1239_en_santé_et_médecine/1239_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1239_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1239_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1239 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1239_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1239_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15 juin : Guy de Sora, légat de Grégoire IX, interdit d'avoir recours aux médecins juifs, qui ont « une interprétation différente de l’Écriture concernant le symbolisme des membres du corps humain[1] ».
-Juillet : première mention d'une léproserie à Achicourt, sur le Crinchon, en Artois, dans un acte signé de Gilles II, seigneur de Beaumetz[2].
-Fondation de l'hôpital Sainte-Avoye à Montfort-l'Amaury par Amaury VI, comte de Montfort et connétable de France[3].
-Première mention de l'hôpital Sainte-Catherine à Quimper en Bretagne[4].
-Fondation à Valenciennes, dans le Hainaut, d'un hôpital pour les malades sans ressources, placé sous l'invocation de sainte Élisabeth de Hongrie et confié aux béguines[5].
-Fondation d'un hôpital à Vivoin dans le Maine[6].
-Première mention d'une léproserie dans la principauté épiscopale de Genève, à Dingy-en-Vuache[7].
-Une léproserie, dite « Bonne-Maison des Ladres », est mentionnée à Marcq-en-Barœul en Flandre, dans un acte signé de Gauthier de Marvis, évêque de Tournai[8].
-Richard de Fournival, chapelain du cardinal Robert de Sommercotes, obtient de Grégoire IX l'autorisation d'exercer la chirurgie jusqu'au jour où il sera diacre[1].
-À Montpellier, un document stipule que la pratique de la médecine est soumise à l'examen de l'évêque de Maguelone et de deux maîtres de l'Université, mais l'exercice de la chirurgie reste libre[9].
-En France, épidémie supposée de coqueluche ou de grippe[10],[11].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 juin : Guy de Sora, légat de Grégoire IX, interdit d'avoir recours aux médecins juifs, qui ont « une interprétation différente de l’Écriture concernant le symbolisme des membres du corps humain ».
+Juillet : première mention d'une léproserie à Achicourt, sur le Crinchon, en Artois, dans un acte signé de Gilles II, seigneur de Beaumetz.
+Fondation de l'hôpital Sainte-Avoye à Montfort-l'Amaury par Amaury VI, comte de Montfort et connétable de France.
+Première mention de l'hôpital Sainte-Catherine à Quimper en Bretagne.
+Fondation à Valenciennes, dans le Hainaut, d'un hôpital pour les malades sans ressources, placé sous l'invocation de sainte Élisabeth de Hongrie et confié aux béguines.
+Fondation d'un hôpital à Vivoin dans le Maine.
+Première mention d'une léproserie dans la principauté épiscopale de Genève, à Dingy-en-Vuache.
+Une léproserie, dite « Bonne-Maison des Ladres », est mentionnée à Marcq-en-Barœul en Flandre, dans un acte signé de Gauthier de Marvis, évêque de Tournai.
+Richard de Fournival, chapelain du cardinal Robert de Sommercotes, obtient de Grégoire IX l'autorisation d'exercer la chirurgie jusqu'au jour où il sera diacre.
+À Montpellier, un document stipule que la pratique de la médecine est soumise à l'examen de l'évêque de Maguelone et de deux maîtres de l'Université, mais l'exercice de la chirurgie reste libre.
+En France, épidémie supposée de coqueluche ou de grippe,.</t>
         </is>
       </c>
     </row>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1239_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1239_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. A., frère convers et médecin de l'abbaye de Berdoues, Bernard, médecin, bienfaiteur de l'hôtel-Dieu de Beauvais, et Fresolus, médecin à Cavaillon[12].
-1234-1239 : fl. De Bouconvilla, médecin dont « on a cru, à tort selon [Wickersheimer], qu'[il] avait été médecin de Louis IX[12] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. A., frère convers et médecin de l'abbaye de Berdoues, Bernard, médecin, bienfaiteur de l'hôtel-Dieu de Beauvais, et Fresolus, médecin à Cavaillon.
+1234-1239 : fl. De Bouconvilla, médecin dont « on a cru, à tort selon [Wickersheimer], qu'[il] avait été médecin de Louis IX ».</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1239_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1239_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1239 au plus tard : Jean de Spéradan, médecin, propriétaire à Narbonne de « deux maisons situées dans la paroisse Saint-Sébastien[13] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1239 au plus tard : Jean de Spéradan, médecin, propriétaire à Narbonne de « deux maisons situées dans la paroisse Saint-Sébastien ».</t>
         </is>
       </c>
     </row>
